--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H2">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I2">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J2">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>1.008197</v>
       </c>
       <c r="O2">
-        <v>0.61796315501715</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="P2">
-        <v>0.61796315501715</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="Q2">
-        <v>0.07340827985455554</v>
+        <v>0.05414734830088889</v>
       </c>
       <c r="R2">
-        <v>0.660674518691</v>
+        <v>0.487326134708</v>
       </c>
       <c r="S2">
-        <v>0.002266079750673061</v>
+        <v>0.0009147348358146559</v>
       </c>
       <c r="T2">
-        <v>0.002279296989336076</v>
+        <v>0.0009343838606990669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H3">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I3">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J3">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2077623333333333</v>
+        <v>0.204299</v>
       </c>
       <c r="N3">
-        <v>0.6232869999999999</v>
+        <v>0.612897</v>
       </c>
       <c r="O3">
-        <v>0.3820368449828499</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="P3">
-        <v>0.38203684498285</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="Q3">
-        <v>0.04538242677344443</v>
+        <v>0.03291692727866667</v>
       </c>
       <c r="R3">
-        <v>0.4084418409609999</v>
+        <v>0.296252345508</v>
       </c>
       <c r="S3">
-        <v>0.001400934588733908</v>
+        <v>0.0005560800485086697</v>
       </c>
       <c r="T3">
-        <v>0.001409105742818432</v>
+        <v>0.0005680249644373828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.635478333333334</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H4">
-        <v>19.906435</v>
+        <v>0.483364</v>
       </c>
       <c r="I4">
-        <v>0.1113945496838451</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J4">
-        <v>0.1120442745439226</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3360656666666667</v>
+        <v>0.152846</v>
       </c>
       <c r="N4">
-        <v>1.008197</v>
+        <v>0.458538</v>
       </c>
       <c r="O4">
-        <v>0.61796315501715</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="P4">
-        <v>0.61796315501715</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="Q4">
-        <v>2.229956449743889</v>
+        <v>0.02462675131466667</v>
       </c>
       <c r="R4">
-        <v>20.069608047695</v>
+        <v>0.221640761832</v>
       </c>
       <c r="S4">
-        <v>0.06883772737434361</v>
+        <v>0.0004160304802977799</v>
       </c>
       <c r="T4">
-        <v>0.06923923339877018</v>
+        <v>0.000424967051793676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>19.906435</v>
       </c>
       <c r="I5">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J5">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2077623333333333</v>
+        <v>0.3360656666666667</v>
       </c>
       <c r="N5">
-        <v>0.6232869999999999</v>
+        <v>1.008197</v>
       </c>
       <c r="O5">
-        <v>0.3820368449828499</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="P5">
-        <v>0.38203684498285</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="Q5">
-        <v>1.378602461316111</v>
+        <v>2.229956449743889</v>
       </c>
       <c r="R5">
-        <v>12.407422151845</v>
+        <v>20.069608047695</v>
       </c>
       <c r="S5">
-        <v>0.04255682230950152</v>
+        <v>0.03767162956153152</v>
       </c>
       <c r="T5">
-        <v>0.04280504114515245</v>
+        <v>0.0384808376049003</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.76501</v>
+        <v>6.635478333333334</v>
       </c>
       <c r="H6">
-        <v>74.29503</v>
+        <v>19.906435</v>
       </c>
       <c r="I6">
-        <v>0.4157480438158698</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J6">
-        <v>0.4181729545530863</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3360656666666667</v>
+        <v>0.204299</v>
       </c>
       <c r="N6">
-        <v>1.008197</v>
+        <v>0.612897</v>
       </c>
       <c r="O6">
-        <v>0.61796315501715</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="P6">
-        <v>0.61796315501715</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="Q6">
-        <v>8.322669595656667</v>
+        <v>1.355621588021667</v>
       </c>
       <c r="R6">
-        <v>74.90402636091</v>
+        <v>12.200594292195</v>
       </c>
       <c r="S6">
-        <v>0.2569169728486633</v>
+        <v>0.02290110835816213</v>
       </c>
       <c r="T6">
-        <v>0.2584154783384685</v>
+        <v>0.02339303719960542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.76501</v>
+        <v>6.635478333333334</v>
       </c>
       <c r="H7">
-        <v>74.29503</v>
+        <v>19.906435</v>
       </c>
       <c r="I7">
-        <v>0.4157480438158698</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J7">
-        <v>0.4181729545530863</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2077623333333333</v>
+        <v>0.152846</v>
       </c>
       <c r="N7">
-        <v>0.6232869999999999</v>
+        <v>0.458538</v>
       </c>
       <c r="O7">
-        <v>0.3820368449828499</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="P7">
-        <v>0.38203684498285</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="Q7">
-        <v>5.145236262623333</v>
+        <v>1.014206321336667</v>
       </c>
       <c r="R7">
-        <v>46.30712636361</v>
+        <v>9.127856892030001</v>
       </c>
       <c r="S7">
-        <v>0.1588310709672066</v>
+        <v>0.01713343094245028</v>
       </c>
       <c r="T7">
-        <v>0.1597574762146178</v>
+        <v>0.01750146679039491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0362615</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H8">
-        <v>2.072523</v>
+        <v>122.345513</v>
       </c>
       <c r="I8">
-        <v>0.01739646749614472</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J8">
-        <v>0.01166528994320652</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,27 +936,27 @@
         <v>1.008197</v>
       </c>
       <c r="O8">
-        <v>0.61796315501715</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="P8">
-        <v>0.61796315501715</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="Q8">
-        <v>0.3482519118385</v>
+        <v>13.70537546334011</v>
       </c>
       <c r="R8">
-        <v>2.089511471031</v>
+        <v>123.348379170061</v>
       </c>
       <c r="S8">
-        <v>0.01075037594007089</v>
+        <v>0.2315309016532362</v>
       </c>
       <c r="T8">
-        <v>0.00720871937749373</v>
+        <v>0.2365043171939736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0362615</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H9">
-        <v>2.072523</v>
+        <v>122.345513</v>
       </c>
       <c r="I9">
-        <v>0.01739646749614472</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J9">
-        <v>0.01166528994320652</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,33 +992,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2077623333333333</v>
+        <v>0.204299</v>
       </c>
       <c r="N9">
-        <v>0.6232869999999999</v>
+        <v>0.612897</v>
       </c>
       <c r="O9">
-        <v>0.3820368449828499</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="P9">
-        <v>0.38203684498285</v>
+        <v>0.2947141609669403</v>
       </c>
       <c r="Q9">
-        <v>0.2152961071835</v>
+        <v>8.331688653462335</v>
       </c>
       <c r="R9">
-        <v>1.291776643101</v>
+        <v>74.985197881161</v>
       </c>
       <c r="S9">
-        <v>0.006646091556073829</v>
+        <v>0.1407508602292642</v>
       </c>
       <c r="T9">
-        <v>0.004456570565712786</v>
+        <v>0.1437742688137684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.91216766666667</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H10">
-        <v>80.736503</v>
+        <v>122.345513</v>
       </c>
       <c r="I10">
-        <v>0.4517939246647333</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J10">
-        <v>0.45442907822763</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3360656666666667</v>
+        <v>0.152846</v>
       </c>
       <c r="N10">
-        <v>1.008197</v>
+        <v>0.458538</v>
       </c>
       <c r="O10">
-        <v>0.61796315501715</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="P10">
-        <v>0.61796315501715</v>
+        <v>0.2204899713026151</v>
       </c>
       <c r="Q10">
-        <v>9.044255568343443</v>
+        <v>6.233340759999334</v>
       </c>
       <c r="R10">
-        <v>81.398300115091</v>
+        <v>56.100066839994</v>
       </c>
       <c r="S10">
-        <v>0.2791919991033992</v>
+        <v>0.1053025515670763</v>
       </c>
       <c r="T10">
-        <v>0.2808204269130815</v>
+        <v>0.1075645103065078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.91216766666667</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H11">
-        <v>80.736503</v>
+        <v>10.774166</v>
       </c>
       <c r="I11">
-        <v>0.4517939246647333</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J11">
-        <v>0.45442907822763</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2077623333333333</v>
+        <v>0.3360656666666667</v>
       </c>
       <c r="N11">
-        <v>0.6232869999999999</v>
+        <v>1.008197</v>
       </c>
       <c r="O11">
-        <v>0.3820368449828499</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="P11">
-        <v>0.38203684498285</v>
+        <v>0.4847958677304446</v>
       </c>
       <c r="Q11">
-        <v>5.591334749484554</v>
+        <v>1.810413639783667</v>
       </c>
       <c r="R11">
-        <v>50.32201274536099</v>
+        <v>10.862481838702</v>
       </c>
       <c r="S11">
-        <v>0.1726019255613341</v>
+        <v>0.03058410938873142</v>
       </c>
       <c r="T11">
-        <v>0.1736086513145485</v>
+        <v>0.02082738231000369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.387083000000001</v>
+      </c>
+      <c r="H12">
+        <v>10.774166</v>
+      </c>
+      <c r="I12">
+        <v>0.06308657194606442</v>
+      </c>
+      <c r="J12">
+        <v>0.04296113827765565</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.204299</v>
+      </c>
+      <c r="N12">
+        <v>0.612897</v>
+      </c>
+      <c r="O12">
+        <v>0.2947141609669403</v>
+      </c>
+      <c r="P12">
+        <v>0.2947141609669403</v>
+      </c>
+      <c r="Q12">
+        <v>1.100575669817</v>
+      </c>
+      <c r="R12">
+        <v>6.603454018902001</v>
+      </c>
+      <c r="S12">
+        <v>0.01859250611936489</v>
+      </c>
+      <c r="T12">
+        <v>0.01266125582168399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.387083000000001</v>
+      </c>
+      <c r="H13">
+        <v>10.774166</v>
+      </c>
+      <c r="I13">
+        <v>0.06308657194606442</v>
+      </c>
+      <c r="J13">
+        <v>0.04296113827765565</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.152846</v>
+      </c>
+      <c r="N13">
+        <v>0.458538</v>
+      </c>
+      <c r="O13">
+        <v>0.2204899713026151</v>
+      </c>
+      <c r="P13">
+        <v>0.2204899713026151</v>
+      </c>
+      <c r="Q13">
+        <v>0.8233940882180001</v>
+      </c>
+      <c r="R13">
+        <v>4.940364529308001</v>
+      </c>
+      <c r="S13">
+        <v>0.01390995643796811</v>
+      </c>
+      <c r="T13">
+        <v>0.009472500145967972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>32.42639166666667</v>
+      </c>
+      <c r="H14">
+        <v>97.279175</v>
+      </c>
+      <c r="I14">
+        <v>0.379736100377594</v>
+      </c>
+      <c r="J14">
+        <v>0.3878930479362637</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3360656666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.008197</v>
+      </c>
+      <c r="O14">
+        <v>0.4847958677304446</v>
+      </c>
+      <c r="P14">
+        <v>0.4847958677304446</v>
+      </c>
+      <c r="Q14">
+        <v>10.89739693305278</v>
+      </c>
+      <c r="R14">
+        <v>98.07657239747499</v>
+      </c>
+      <c r="S14">
+        <v>0.1840944922911309</v>
+      </c>
+      <c r="T14">
+        <v>0.1880489467608679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>32.42639166666667</v>
+      </c>
+      <c r="H15">
+        <v>97.279175</v>
+      </c>
+      <c r="I15">
+        <v>0.379736100377594</v>
+      </c>
+      <c r="J15">
+        <v>0.3878930479362637</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.204299</v>
+      </c>
+      <c r="N15">
+        <v>0.612897</v>
+      </c>
+      <c r="O15">
+        <v>0.2947141609669403</v>
+      </c>
+      <c r="P15">
+        <v>0.2947141609669403</v>
+      </c>
+      <c r="Q15">
+        <v>6.624679391108334</v>
+      </c>
+      <c r="R15">
+        <v>59.622114519975</v>
+      </c>
+      <c r="S15">
+        <v>0.1119136062116404</v>
+      </c>
+      <c r="T15">
+        <v>0.1143175741674451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>32.42639166666667</v>
+      </c>
+      <c r="H16">
+        <v>97.279175</v>
+      </c>
+      <c r="I16">
+        <v>0.379736100377594</v>
+      </c>
+      <c r="J16">
+        <v>0.3878930479362637</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.152846</v>
+      </c>
+      <c r="N16">
+        <v>0.458538</v>
+      </c>
+      <c r="O16">
+        <v>0.2204899713026151</v>
+      </c>
+      <c r="P16">
+        <v>0.2204899713026151</v>
+      </c>
+      <c r="Q16">
+        <v>4.956244260683333</v>
+      </c>
+      <c r="R16">
+        <v>44.60619834614999</v>
+      </c>
+      <c r="S16">
+        <v>0.08372800187482267</v>
+      </c>
+      <c r="T16">
+        <v>0.08552652700795066</v>
       </c>
     </row>
   </sheetData>
